--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_6_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3069842.660850894</v>
+        <v>3062669.372140612</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2346514.735702201</v>
+        <v>2346514.735702197</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>246.450569988936</v>
       </c>
       <c r="F2" t="n">
-        <v>147.0502277324138</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.16194852731947</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>60.54219026791008</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I3" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
       </c>
       <c r="T3" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>145.5844699931006</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>28.69723130130874</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.0396308464228</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>372.0396308464228</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,10 +913,10 @@
         <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
-        <v>133.9454858027644</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>192.255830128091</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385217</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3078446008425</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>323.342916655847</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281884</v>
+        <v>80.69052336281877</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9247462029711</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>191.5436693474312</v>
+        <v>116.251866609975</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>137.1649833439818</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5860313669116</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>108.8074282022286</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>289.8177098088482</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.52687838733164</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>56.49576810820454</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="D13" t="n">
-        <v>140.1519717222921</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>5.562624396424664</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>105.9826737045207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>5.562624396424664</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>200.9653146698459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>101.2898147863554</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>41.51284162387452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>139.055150479118</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>73.23290015944603</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>73.21532344290729</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.06182847190766</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>112.6914760419205</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>27.71302859845004</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>144.6364698174268</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.2526092198878</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,10 +3906,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>59.34518284213959</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>36.44570045297875</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>38.04427376178251</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>198.5241423098156</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>672.0084928939002</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="C2" t="n">
-        <v>672.0084928939002</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="D2" t="n">
-        <v>393.0625194571775</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="E2" t="n">
-        <v>393.0625194571775</v>
+        <v>251.4724366382861</v>
       </c>
       <c r="F2" t="n">
         <v>244.5269358890827</v>
@@ -4330,22 +4330,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618844</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K2" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L2" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M2" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N2" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O2" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P2" t="n">
         <v>1099.465256491931</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S2" t="n">
-        <v>896.7353068029595</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="T2" t="n">
-        <v>672.0084928939002</v>
+        <v>754.2855273228794</v>
       </c>
       <c r="U2" t="n">
-        <v>672.0084928939002</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="V2" t="n">
-        <v>672.0084928939002</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="W2" t="n">
-        <v>672.0084928939002</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="X2" t="n">
-        <v>672.0084928939002</v>
+        <v>500.4124063240801</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.0084928939002</v>
+        <v>500.4124063240801</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.9261246220445</v>
+        <v>617.3516848454813</v>
       </c>
       <c r="C3" t="n">
-        <v>170.9261246220445</v>
+        <v>442.8986555643543</v>
       </c>
       <c r="D3" t="n">
-        <v>170.9261246220445</v>
+        <v>293.964245903103</v>
       </c>
       <c r="E3" t="n">
-        <v>170.9261246220445</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="F3" t="n">
-        <v>109.772397078701</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="G3" t="n">
-        <v>109.772397078701</v>
+        <v>134.7267908976475</v>
       </c>
       <c r="H3" t="n">
-        <v>109.772397078701</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I3" t="n">
         <v>22.09252109618844</v>
@@ -4415,10 +4415,10 @@
         <v>165.799003153448</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>411.954469746149</v>
       </c>
       <c r="M3" t="n">
-        <v>288.9361218459458</v>
+        <v>411.954469746149</v>
       </c>
       <c r="N3" t="n">
         <v>562.3310704112777</v>
@@ -4433,28 +4433,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>836.1767451915302</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T3" t="n">
-        <v>634.2968452196395</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U3" t="n">
-        <v>406.0782328537872</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="V3" t="n">
-        <v>170.9261246220445</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="W3" t="n">
-        <v>170.9261246220445</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="X3" t="n">
-        <v>170.9261246220445</v>
+        <v>785.5670218655493</v>
       </c>
       <c r="Y3" t="n">
-        <v>170.9261246220445</v>
+        <v>785.5670218655493</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.09252109618844</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09252109618844</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="D4" t="n">
-        <v>22.09252109618844</v>
+        <v>170.0056146785816</v>
       </c>
       <c r="E4" t="n">
         <v>22.09252109618844</v>
@@ -4527,13 +4527,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="W4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="X4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>739.4505815494917</v>
+        <v>785.7519097470347</v>
       </c>
       <c r="C5" t="n">
-        <v>739.4505815494917</v>
+        <v>785.7519097470347</v>
       </c>
       <c r="D5" t="n">
-        <v>381.1848829427412</v>
+        <v>427.4862111402841</v>
       </c>
       <c r="E5" t="n">
-        <v>381.1848829427412</v>
+        <v>51.68860422470554</v>
       </c>
       <c r="F5" t="n">
-        <v>374.2393821935378</v>
+        <v>44.74310347550207</v>
       </c>
       <c r="G5" t="n">
-        <v>359.2594491857495</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="H5" t="n">
-        <v>223.9609786779067</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="I5" t="n">
-        <v>29.76317046771374</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J5" t="n">
-        <v>57.643917353804</v>
+        <v>57.64391735380431</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456877</v>
+        <v>220.1747338456885</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039972</v>
+        <v>474.0852112039987</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494155</v>
+        <v>773.2160860494175</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635721</v>
+        <v>1062.555213635723</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293127</v>
+        <v>1290.58230929313</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935879</v>
+        <v>1447.523776935883</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="T5" t="n">
-        <v>1366.76264748819</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="U5" t="n">
-        <v>1112.916339810572</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="V5" t="n">
-        <v>1112.916339810572</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="W5" t="n">
-        <v>1112.916339810572</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="X5" t="n">
-        <v>739.4505815494917</v>
+        <v>1161.549516662613</v>
       </c>
       <c r="Y5" t="n">
-        <v>739.4505815494917</v>
+        <v>1161.549516662613</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>396.6240994542691</v>
+        <v>740.428201543025</v>
       </c>
       <c r="C6" t="n">
-        <v>222.1710701731421</v>
+        <v>565.975172261898</v>
       </c>
       <c r="D6" t="n">
-        <v>222.1710701731421</v>
+        <v>417.0407626006468</v>
       </c>
       <c r="E6" t="n">
-        <v>222.1710701731421</v>
+        <v>257.8033075951913</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>111.2687496220762</v>
       </c>
       <c r="H6" t="n">
         <v>111.2687496220762</v>
       </c>
       <c r="I6" t="n">
-        <v>29.76317046771374</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J6" t="n">
-        <v>29.76317046771374</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="K6" t="n">
-        <v>195.5446164760265</v>
+        <v>195.5446164760269</v>
       </c>
       <c r="L6" t="n">
-        <v>479.8626256221626</v>
+        <v>479.8626256221634</v>
       </c>
       <c r="M6" t="n">
-        <v>710.1745897964065</v>
+        <v>848.1818601601219</v>
       </c>
       <c r="N6" t="n">
-        <v>1078.493824334364</v>
+        <v>1216.501094698081</v>
       </c>
       <c r="O6" t="n">
-        <v>1386.808705706683</v>
+        <v>1386.808705706687</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706683</v>
+        <v>1386.808705706687</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="R6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="S6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="T6" t="n">
-        <v>1488.158523385687</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="U6" t="n">
-        <v>1259.951709039251</v>
+        <v>1488.158523385691</v>
       </c>
       <c r="V6" t="n">
-        <v>1066.473255152957</v>
+        <v>1370.732395496827</v>
       </c>
       <c r="W6" t="n">
-        <v>812.2358984247558</v>
+        <v>1116.495038768626</v>
       </c>
       <c r="X6" t="n">
-        <v>604.3843982192229</v>
+        <v>908.643538563093</v>
       </c>
       <c r="Y6" t="n">
-        <v>396.6240994542691</v>
+        <v>908.643538563093</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.76317046771374</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="C7" t="n">
-        <v>29.76317046771374</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="D7" t="n">
-        <v>29.76317046771374</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="E7" t="n">
-        <v>29.76317046771374</v>
+        <v>176.6531179656242</v>
       </c>
       <c r="F7" t="n">
-        <v>29.76317046771374</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="G7" t="n">
-        <v>29.76317046771374</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="H7" t="n">
-        <v>29.76317046771374</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="I7" t="n">
-        <v>29.76317046771374</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="J7" t="n">
-        <v>29.76317046771374</v>
+        <v>29.76317046771382</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888147</v>
+        <v>32.09990175888175</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611249</v>
+        <v>90.61654790611301</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236685</v>
+        <v>162.7032697236693</v>
       </c>
       <c r="N7" t="n">
-        <v>238.5105468400017</v>
+        <v>238.5105468400027</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057941</v>
+        <v>292.5145415057954</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918669</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="Q7" t="n">
-        <v>315.2036061918669</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="R7" t="n">
-        <v>315.2036061918669</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="S7" t="n">
-        <v>315.2036061918669</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="T7" t="n">
-        <v>315.2036061918669</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="U7" t="n">
-        <v>29.76317046771374</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="V7" t="n">
-        <v>29.76317046771374</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="W7" t="n">
-        <v>29.76317046771374</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="X7" t="n">
-        <v>29.76317046771374</v>
+        <v>315.2036061918684</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.76317046771374</v>
+        <v>315.2036061918684</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2587.242597884658</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2073.341042251573</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>2073.341042251573</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2073.341042251573</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5129,16 +5129,16 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.6108700904385</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6746871625317</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904385</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y13" t="n">
-        <v>554.6108700904385</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,28 +5299,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>485.5200852635878</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
         <v>1736.599915964471</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4612303381598</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>898.5039869983193</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>670.514436100302</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.4612303381598</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,40 +5509,40 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.0432218861031</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5703,22 +5703,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273991</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0280401273991</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X19" t="n">
-        <v>616.0384892293818</v>
+        <v>102.8359039819269</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.0432218861031</v>
+        <v>102.8359039819269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>614.2381923230575</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>921.5583256030193</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.96990386717</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>199.5300356889277</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>199.5300356889277</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>199.5300356889277</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>199.5300356889277</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>199.5300356889277</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>199.5300356889277</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028587</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383447</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324578</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>420.3226148324578</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>420.3226148324578</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>199.5300356889277</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,61 +5980,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>454.2145238948145</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C25" t="n">
-        <v>454.2145238948145</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383447</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383447</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0071030383447</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X25" t="n">
-        <v>675.0071030383447</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y25" t="n">
-        <v>454.2145238948145</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,37 +6226,37 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>223.155231313709</v>
       </c>
       <c r="K27" t="n">
-        <v>644.675512255521</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619851</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>751.4342788065931</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>601.3176393942573</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383447</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>385.5899330013841</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X28" t="n">
-        <v>385.5899330013841</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y28" t="n">
-        <v>385.5899330013841</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,7 +6487,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2413.343925613456</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>646.9375622247751</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>478.0013792968682</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,10 +6639,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
         <v>1387.841167119728</v>
@@ -6654,19 +6654,19 @@
         <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227924</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>874.9271131227924</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W31" t="n">
-        <v>874.9271131227924</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X31" t="n">
-        <v>646.9375622247751</v>
+        <v>391.9645427683688</v>
       </c>
       <c r="Y31" t="n">
-        <v>646.9375622247751</v>
+        <v>171.1719636248387</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,13 +6724,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.7865112929643</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>788.7865112929643</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>638.6698718806285</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>490.7567782982354</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>1298.996260473455</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>1009.579090436494</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1009.579090436494</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>788.7865112929643</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6928,43 +6928,43 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1006.183580119175</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.046207783208</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085867</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3775.243809179247</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C37" t="n">
-        <v>3775.243809179247</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D37" t="n">
-        <v>3775.243809179247</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E37" t="n">
-        <v>3627.330715596854</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596854</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4721.786511395865</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>4467.102023189978</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>4177.684853153018</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X37" t="n">
-        <v>4177.684853153018</v>
+        <v>1063.401656260915</v>
       </c>
       <c r="Y37" t="n">
-        <v>3956.892274009487</v>
+        <v>1063.401656260915</v>
       </c>
     </row>
     <row r="38">
@@ -7168,49 +7168,49 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7241,25 +7241,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619851</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M39" t="n">
         <v>1198.760773441947</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>678.2225136306376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033474</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>909.3712637033474</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>909.3712637033474</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>688.5786845598172</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,31 +7399,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3583.957287518663</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>656.1762782006411</v>
+        <v>657.199424285124</v>
       </c>
       <c r="C43" t="n">
-        <v>656.1762782006411</v>
+        <v>657.199424285124</v>
       </c>
       <c r="D43" t="n">
-        <v>506.0596387883054</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E43" t="n">
-        <v>506.0596387883054</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
         <v>359.1696912903951</v>
@@ -7566,7 +7566,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1127.976527901806</v>
       </c>
       <c r="U43" t="n">
-        <v>1164.055751909234</v>
+        <v>838.8478891153637</v>
       </c>
       <c r="V43" t="n">
-        <v>1164.055751909234</v>
+        <v>838.8478891153637</v>
       </c>
       <c r="W43" t="n">
-        <v>874.6385818722736</v>
+        <v>838.8478891153637</v>
       </c>
       <c r="X43" t="n">
-        <v>837.8247430308809</v>
+        <v>838.8478891153637</v>
       </c>
       <c r="Y43" t="n">
-        <v>837.8247430308809</v>
+        <v>838.8478891153637</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.509052552801</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="C46" t="n">
-        <v>415.509052552801</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>282.5355983135321</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>135.6456508156217</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1098.712528333287</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>844.0280401273998</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>844.0280401273998</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X46" t="n">
-        <v>616.0384892293824</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.509052552801</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562864</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>247.4283748023149</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273546</v>
+        <v>263.6455160524019</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>102.9473967948385</v>
+        <v>102.9473967948383</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>310.7020700879029</v>
+        <v>450.1033532835737</v>
       </c>
       <c r="N6" t="n">
-        <v>437.6152809470457</v>
+        <v>437.6152809470462</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>254.4610360810598</v>
       </c>
       <c r="P6" t="n">
-        <v>85.6882169793617</v>
+        <v>85.68821697936131</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8947,10 +8947,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231157</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>306.1147370139962</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>104.874910276575</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>80.50021372615146</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>360.5026862907248</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127836</v>
       </c>
       <c r="K27" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>124.3400780863223</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>62.91120742583729</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>165.9802687929759</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L39" t="n">
-        <v>360.502686290725</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.8953512967693</v>
       </c>
       <c r="D13" t="n">
-        <v>8.463501295920253</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>139.8584236265066</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.6019796475741</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>143.3512039711115</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23943,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.61933868224892</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>47.62401358118071</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>107.1026313943378</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40.77682970281927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>73.20106248712314</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>106.61665673903</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.5536445463047</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>32.72957198101074</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -25368,19 +25368,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>258.5243238001273</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>81.0731855716104</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>169.5793709620495</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,22 +25836,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>162.2023782162497</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>189.2639549360584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>128.4492947015951</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>20.06051104227919</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746625.9353204659</v>
+        <v>746625.9353204658</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746625.9353204659</v>
+        <v>746625.9353204658</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746625.9353204659</v>
+        <v>746625.9353204658</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746625.9353204659</v>
+        <v>746625.9353204658</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746625.9353204659</v>
+        <v>746625.9353204658</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
@@ -26322,7 +26322,7 @@
         <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
         <v>664749.4015541049</v>
@@ -26331,31 +26331,31 @@
         <v>664749.4015541046</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="J2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="K2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541045</v>
       </c>
     </row>
     <row r="3">
@@ -26368,34 +26368,34 @@
         <v>126293.341446813</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703834</v>
+        <v>106137.1517703845</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252114</v>
+        <v>316711.9424252103</v>
       </c>
       <c r="E3" t="n">
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>5.456968210637569e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.6948711391</v>
+        <v>72254.69487113916</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.2460931341</v>
+        <v>24677.24609313437</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817145</v>
+        <v>76496.15793817124</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.456968210637569e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>316926.9684369123</v>
       </c>
       <c r="C4" t="n">
-        <v>286886.6599484433</v>
+        <v>286886.6599484429</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
@@ -26429,37 +26429,37 @@
         <v>43561.42148316556</v>
       </c>
       <c r="F4" t="n">
-        <v>43561.42148316561</v>
+        <v>43561.42148316557</v>
       </c>
       <c r="G4" t="n">
+        <v>43561.42148316553</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="I4" t="n">
         <v>43561.42148316556</v>
       </c>
-      <c r="H4" t="n">
-        <v>43561.42148316555</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>43561.4214831656</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="N4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="O4" t="n">
+        <v>43561.42148316557</v>
+      </c>
+      <c r="P4" t="n">
         <v>43561.42148316553</v>
-      </c>
-      <c r="J4" t="n">
-        <v>43561.42148316553</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43561.42148316553</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43561.42148316553</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43561.42148316553</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43561.42148316553</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43561.42148316558</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43561.42148316554</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485712</v>
+        <v>58810.42201485719</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26484,13 +26484,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203483.8149841356</v>
+        <v>203483.8149841354</v>
       </c>
       <c r="C6" t="n">
-        <v>246051.2706509571</v>
+        <v>246051.2706509562</v>
       </c>
       <c r="D6" t="n">
-        <v>106107.8875035903</v>
+        <v>106107.8875035915</v>
       </c>
       <c r="E6" t="n">
-        <v>4040.617645326434</v>
+        <v>3066.026385605025</v>
       </c>
       <c r="F6" t="n">
-        <v>529200.6541222227</v>
+        <v>528226.062862501</v>
       </c>
       <c r="G6" t="n">
-        <v>529200.6541222224</v>
+        <v>528226.0628625008</v>
       </c>
       <c r="H6" t="n">
-        <v>529200.6541222222</v>
+        <v>528226.062862501</v>
       </c>
       <c r="I6" t="n">
-        <v>529200.6541222227</v>
+        <v>528226.0628625009</v>
       </c>
       <c r="J6" t="n">
-        <v>456945.9592510834</v>
+        <v>455971.3679913619</v>
       </c>
       <c r="K6" t="n">
-        <v>504523.4080290885</v>
+        <v>503548.8167693666</v>
       </c>
       <c r="L6" t="n">
-        <v>452704.4961840509</v>
+        <v>451729.9049243298</v>
       </c>
       <c r="M6" t="n">
-        <v>394399.6388883853</v>
+        <v>393425.0476286636</v>
       </c>
       <c r="N6" t="n">
-        <v>529200.6541222227</v>
+        <v>528226.0628625009</v>
       </c>
       <c r="O6" t="n">
-        <v>529200.6541222227</v>
+        <v>528226.0628625008</v>
       </c>
       <c r="P6" t="n">
-        <v>529200.6541222226</v>
+        <v>528226.0628625008</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593887</v>
+        <v>117.5602045593896</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,7 +26792,7 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>372.0396308464217</v>
+        <v>372.0396308464228</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.02126071912533</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026339</v>
+        <v>82.5389438402643</v>
       </c>
       <c r="D3" t="n">
-        <v>260.183459657698</v>
+        <v>260.1834596576971</v>
       </c>
       <c r="E3" t="n">
         <v>452.6387412370135</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406626</v>
+        <v>95.8831171440673</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081328</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990175</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023555</v>
+        <v>276.1565137023556</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406626</v>
+        <v>95.88311714406753</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081329</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27260,10 +27260,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406626</v>
+        <v>95.8831171440673</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081339</v>
+        <v>302.2476419081328</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990175</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>78.52652791832747</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>135.4798000833258</v>
       </c>
       <c r="F2" t="n">
-        <v>259.8258180092976</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>84.52702212547379</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.2681884137393</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5079271034444</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>60.18851521037683</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>151.1347488806286</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081705781</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>9.890739225839013</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>200.6892622629773</v>
+        <v>334.6347480657416</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>192.2558301280908</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385215</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409305</v>
+        <v>198.2506096409304</v>
       </c>
       <c r="T5" t="n">
         <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3078446008425</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>46.38818402262206</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129683</v>
+        <v>84.45800155129672</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>166.9863082141301</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
-        <v>41.25691780199409</v>
+        <v>116.5487205394502</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27782,10 +27782,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>9.268979302587383</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.7789855469582</v>
@@ -27794,10 +27794,10 @@
         <v>160.342354801553</v>
       </c>
       <c r="I7" t="n">
-        <v>149.0752428504967</v>
+        <v>149.0752428504966</v>
       </c>
       <c r="J7" t="n">
-        <v>78.37121764358481</v>
+        <v>78.37121764358469</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322668</v>
+        <v>68.41045236322655</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255181</v>
+        <v>167.761378725518</v>
       </c>
       <c r="S7" t="n">
-        <v>220.3221240674584</v>
+        <v>220.3221240674583</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882337</v>
       </c>
       <c r="U7" t="n">
-        <v>3.721434690770138</v>
+        <v>286.3074660576818</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>65.6082846067429</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>59.42325890856478</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>120.4387434050066</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>229.7861061337732</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-7.102688087578037e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.821210263296962e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>1.4418552214663</v>
       </c>
       <c r="I2" t="n">
-        <v>5.427767452760119</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -31059,28 +31059,28 @@
         <v>22.21755819470702</v>
       </c>
       <c r="M2" t="n">
-        <v>24.72131435677232</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N2" t="n">
         <v>25.12133106840334</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72136057081217</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P2" t="n">
-        <v>20.24563243411506</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q2" t="n">
         <v>15.20362680796963</v>
       </c>
       <c r="R2" t="n">
-        <v>8.843836255870379</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S2" t="n">
-        <v>3.208229059847512</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T2" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U2" t="n">
         <v>0.01126311902524633</v>
@@ -31120,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I3" t="n">
-        <v>2.593555628727678</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J3" t="n">
-        <v>7.11691487877999</v>
+        <v>7.116914878779991</v>
       </c>
       <c r="K3" t="n">
-        <v>12.16394109335884</v>
+        <v>12.16394109335885</v>
       </c>
       <c r="L3" t="n">
         <v>16.35591992358773</v>
       </c>
       <c r="M3" t="n">
-        <v>19.0865870919233</v>
+        <v>19.08658709192331</v>
       </c>
       <c r="N3" t="n">
         <v>19.59175225833409</v>
@@ -31150,10 +31150,10 @@
         <v>14.38448725650263</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.615648792164375</v>
+        <v>9.615648792164377</v>
       </c>
       <c r="R3" t="n">
-        <v>4.676990252263569</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S3" t="n">
         <v>1.399198482504676</v>
@@ -31162,7 +31162,7 @@
         <v>0.3036277226497752</v>
       </c>
       <c r="U3" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,37 +31199,37 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I4" t="n">
         <v>1.899185745227322</v>
       </c>
       <c r="J4" t="n">
-        <v>4.464923682174388</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K4" t="n">
-        <v>7.337241180170845</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L4" t="n">
-        <v>9.389142586894684</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M4" t="n">
-        <v>9.899534402948818</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N4" t="n">
-        <v>9.664145601394049</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O4" t="n">
-        <v>8.926402650179686</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P4" t="n">
-        <v>7.638079550938413</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.288210368587925</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R4" t="n">
         <v>2.839592713390063</v>
@@ -31238,10 +31238,10 @@
         <v>1.100586177025627</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246779</v>
+        <v>0.4726038374246816</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025484</v>
+        <v>4.840054050025522</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231491</v>
+        <v>18.22005944231505</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662279</v>
+        <v>40.11165994662311</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480942</v>
+        <v>60.11698038480989</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439491</v>
+        <v>74.58043007439551</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819602</v>
+        <v>82.98509856819668</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127891</v>
+        <v>84.32788422127956</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288726</v>
+        <v>79.62842981288789</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646551</v>
+        <v>67.96102257646605</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869422</v>
+        <v>51.03589764869462</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262795</v>
+        <v>29.68720080262818</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531486</v>
+        <v>10.76945994531494</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326528</v>
+        <v>2.068823298326545</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397422</v>
+        <v>0.03780830699397452</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560436</v>
+        <v>0.2528653456560456</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941264</v>
+        <v>2.442146890941283</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859624</v>
+        <v>8.70610948859631</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182823</v>
+        <v>23.89022987182842</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078316</v>
+        <v>40.83220803078348</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483527</v>
+        <v>54.9039427048357</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486683</v>
+        <v>64.07031148486735</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270936</v>
+        <v>65.76606198270987</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106754</v>
+        <v>60.16309827106802</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496855</v>
+        <v>48.28619043496893</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128726</v>
+        <v>32.27803956128751</v>
       </c>
       <c r="R6" t="n">
-        <v>15.69983260134629</v>
+        <v>15.69983260134642</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707649</v>
+        <v>4.696862889707687</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359228</v>
+        <v>1.019224792359236</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368709</v>
+        <v>0.01663587800368722</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.211993811500537</v>
+        <v>0.2119938115005386</v>
       </c>
       <c r="H7" t="n">
-        <v>1.884817705886594</v>
+        <v>1.884817705886609</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761606</v>
+        <v>6.375232076761655</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308796</v>
+        <v>14.98796247308808</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342602</v>
+        <v>24.62982646342621</v>
       </c>
       <c r="L7" t="n">
-        <v>31.5176981207253</v>
+        <v>31.51769812072554</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094326</v>
+        <v>33.23099356094352</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898674</v>
+        <v>32.440834808987</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736682</v>
+        <v>29.96436164736706</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275584</v>
+        <v>25.63968789275605</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.7515908884677</v>
+        <v>17.75159088846783</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651415</v>
+        <v>9.53201265165149</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513902</v>
+        <v>3.694473969513932</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477488</v>
+        <v>0.9057917400477559</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912021</v>
+        <v>0.0115632988091203</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>110.8113448503282</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.212927593424824</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522133</v>
+        <v>6.370323552522134</v>
       </c>
       <c r="K3" t="n">
         <v>138.7877391315785</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>124.3809279722199</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>276.1565137023555</v>
+        <v>151.8955562274027</v>
       </c>
       <c r="O3" t="n">
         <v>269.1887005891756</v>
@@ -34868,13 +34868,13 @@
         <v>49.4834113647894</v>
       </c>
       <c r="N4" t="n">
-        <v>53.79631798062264</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O4" t="n">
         <v>33.51153056421936</v>
       </c>
       <c r="P4" t="n">
-        <v>4.916638815831901</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059201027</v>
+        <v>28.16237059201059</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109936</v>
+        <v>164.1725419109941</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548581</v>
+        <v>256.4752296548587</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337558</v>
+        <v>302.1523988337564</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366722</v>
+        <v>292.2617450366728</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539459</v>
+        <v>230.3303996539465</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926786</v>
+        <v>158.5267349926792</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414941</v>
+        <v>41.04519843414982</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690028</v>
+        <v>167.4560060690031</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284203</v>
+        <v>287.1899082284207</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6383476507515</v>
+        <v>372.0396308464228</v>
       </c>
       <c r="N6" t="n">
-        <v>372.0396308464217</v>
+        <v>372.0396308464228</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033526</v>
+        <v>172.0278899076833</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111148</v>
+        <v>102.3735532111151</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637543168</v>
+        <v>2.36033463754336</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104144</v>
+        <v>59.10772338104168</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278385</v>
+        <v>72.8148705227841</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821534</v>
+        <v>76.5730071882156</v>
       </c>
       <c r="O7" t="n">
-        <v>54.5494895614065</v>
+        <v>54.54948956140673</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764933</v>
+        <v>22.91824715764954</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110549</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>354.1326152325993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35980,10 +35980,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>329.7579186821758</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>693.6972596887377</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>127.210242276185</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>212.3531108713965</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>345.2749096669455</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>476.4046458434423</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L39" t="n">
-        <v>609.7603912467494</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303314</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9122281478575</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
